--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value682.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value682.xlsx
@@ -354,7 +354,7 @@
         <v>2.777462362152564</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.5967163698078272</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value682.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value682.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.791257528882969</v>
+        <v>1.573030829429626</v>
       </c>
       <c r="B1">
-        <v>2.777462362152564</v>
+        <v>1.780390381813049</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.837659358978271</v>
       </c>
       <c r="D1">
-        <v>0.5967163698078272</v>
+        <v>2.29645299911499</v>
       </c>
       <c r="E1">
-        <v>0.4300430635142897</v>
+        <v>3.461513757705688</v>
       </c>
     </row>
   </sheetData>
